--- a/docs/cytoband.hg38.xlsx
+++ b/docs/cytoband.hg38.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/polly_hung/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/polly_hung/Desktop/BAGEL/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CC7BA35-7A93-0043-975B-C75BE208EBC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71C19EF4-78DA-E941-A2CC-54826C3B44F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -528,12 +528,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="207" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="119" workbookViewId="0">
+      <selection activeCell="H70" sqref="H70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
     <col min="3" max="4" width="13.6640625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -558,8 +559,8 @@
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3">
-        <v>0</v>
+      <c r="C2">
+        <v>3218610</v>
       </c>
       <c r="D2" s="3">
         <v>122026459</v>
@@ -600,8 +601,8 @@
       <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="3">
-        <v>0</v>
+      <c r="C5">
+        <v>484222</v>
       </c>
       <c r="D5" s="3">
         <v>92188145</v>
@@ -642,8 +643,8 @@
       <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="3">
-        <v>0</v>
+      <c r="C8">
+        <v>2212571</v>
       </c>
       <c r="D8" s="3">
         <v>90772458</v>
@@ -684,8 +685,8 @@
       <c r="B11" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="3">
-        <v>0</v>
+      <c r="C11">
+        <v>1053934</v>
       </c>
       <c r="D11" s="3">
         <v>49712061</v>
@@ -726,8 +727,8 @@
       <c r="B14" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="3">
-        <v>0</v>
+      <c r="C14">
+        <v>914233</v>
       </c>
       <c r="D14" s="3">
         <v>46485900</v>
@@ -768,8 +769,8 @@
       <c r="B17" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="3">
-        <v>0</v>
+      <c r="C17">
+        <v>1014281</v>
       </c>
       <c r="D17" s="3">
         <v>58553888</v>
@@ -810,8 +811,8 @@
       <c r="B20" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="3">
-        <v>0</v>
+      <c r="C20">
+        <v>705284</v>
       </c>
       <c r="D20" s="3">
         <v>58169653</v>
@@ -853,7 +854,7 @@
         <v>19</v>
       </c>
       <c r="C23" s="3">
-        <v>0</v>
+        <v>617667</v>
       </c>
       <c r="D23" s="3">
         <v>44033744</v>
@@ -894,8 +895,8 @@
       <c r="B26" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="3">
-        <v>0</v>
+      <c r="C26">
+        <v>789932</v>
       </c>
       <c r="D26" s="3">
         <v>43389635</v>
@@ -936,8 +937,8 @@
       <c r="B29" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="3">
-        <v>0</v>
+      <c r="C29">
+        <v>415240</v>
       </c>
       <c r="D29" s="3">
         <v>39686682</v>
@@ -978,8 +979,8 @@
       <c r="B32" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="3">
-        <v>0</v>
+      <c r="C32">
+        <v>456120</v>
       </c>
       <c r="D32" s="3">
         <v>51078348</v>
@@ -1020,8 +1021,8 @@
       <c r="B35" t="s">
         <v>27</v>
       </c>
-      <c r="C35" s="3">
-        <v>0</v>
+      <c r="C35">
+        <v>889902</v>
       </c>
       <c r="D35" s="3">
         <v>34769407</v>
@@ -1063,7 +1064,7 @@
         <v>29</v>
       </c>
       <c r="C38" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38" s="3">
         <v>16000000</v>
@@ -1105,7 +1106,7 @@
         <v>31</v>
       </c>
       <c r="C41" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D41" s="3">
         <v>16000000</v>
@@ -1147,7 +1148,7 @@
         <v>33</v>
       </c>
       <c r="C44" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D44" s="3">
         <v>17083673</v>
@@ -1188,8 +1189,8 @@
       <c r="B47" t="s">
         <v>35</v>
       </c>
-      <c r="C47" s="3">
-        <v>0</v>
+      <c r="C47">
+        <v>653459</v>
       </c>
       <c r="D47" s="3">
         <v>36311158</v>
@@ -1230,8 +1231,8 @@
       <c r="B50" t="s">
         <v>37</v>
       </c>
-      <c r="C50" s="3">
-        <v>0</v>
+      <c r="C50">
+        <v>987221</v>
       </c>
       <c r="D50" s="3">
         <v>22813679</v>
@@ -1272,8 +1273,8 @@
       <c r="B53" t="s">
         <v>39</v>
       </c>
-      <c r="C53" s="3">
-        <v>0</v>
+      <c r="C53">
+        <v>329586</v>
       </c>
       <c r="D53" s="3">
         <v>15460899</v>
@@ -1314,8 +1315,8 @@
       <c r="B56" t="s">
         <v>41</v>
       </c>
-      <c r="C56" s="3">
-        <v>0</v>
+      <c r="C56">
+        <v>284018</v>
       </c>
       <c r="D56" s="3">
         <v>24498980</v>
@@ -1356,8 +1357,8 @@
       <c r="B59" t="s">
         <v>43</v>
       </c>
-      <c r="C59" s="3">
-        <v>0</v>
+      <c r="C59">
+        <v>455764</v>
       </c>
       <c r="D59" s="3">
         <v>26436232</v>
@@ -1399,7 +1400,7 @@
         <v>45</v>
       </c>
       <c r="C62" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D62" s="3">
         <v>10864560</v>
@@ -1441,7 +1442,7 @@
         <v>47</v>
       </c>
       <c r="C65" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D65" s="3">
         <v>12954788</v>
